--- a/studio的使用/快捷键大全.xlsx
+++ b/studio的使用/快捷键大全.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>功能内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,7 +332,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查找方法在哪里被调用（Call Hierarchy）</t>
+    <t>Ctrl + N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速搜索类中的错误(Go to Next Error)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Highlighted Error (Navigate to the next highlighted error in the active editor)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索定位本类中的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Alt + L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看方法被掉用的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reformat Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Usage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + Alt + N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索内部类或方法或变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alt + 鼠标左键 + 拖动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列选择 （描述：默认是行选择模式。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近打开或编辑过的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重命名字段和方法名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt + 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看类的结构及继承关系,在studio左侧栏显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + /</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多行注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找方法在哪里被调用（Call Hierarchy），调用层次结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -341,86 +425,6 @@
   </si>
   <si>
     <t>Ctrl + N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速搜索类中的错误(Go to Next Error)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next Highlighted Error (Navigate to the next highlighted error in the active editor)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl + O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索定位本类中的方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl + Alt + L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl + G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看方法被掉用的位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reformat Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find Usage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl + Shift + F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl + Shift + Alt + N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索内部类或方法或变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alt + 鼠标左键 + 拖动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列选择 （描述：默认是行选择模式。）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近打开或编辑过的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重命名字段和方法名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alt + 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看类的结构及继承关系,在studio左侧栏显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl + Shift + /</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多行注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1052,7 +1056,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>32</v>
@@ -1083,14 +1087,12 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1098,148 +1100,148 @@
     <row r="16" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="B17" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>96</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C23" s="4" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>72</v>
+      <c r="A24" s="5"/>
+      <c r="B24" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
-      <c r="B25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="A26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="A27" s="5"/>
       <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1247,10 +1249,10 @@
     <row r="29" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1258,10 +1260,10 @@
     <row r="30" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1269,10 +1271,10 @@
     <row r="31" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="4" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1280,47 +1282,49 @@
     <row r="32" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="B33" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1328,9 +1332,11 @@
     <row r="36" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
@@ -1359,10 +1365,10 @@
     <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
       <c r="B39" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1381,10 +1387,10 @@
     <row r="41" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1392,10 +1398,10 @@
     <row r="42" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>

--- a/studio的使用/快捷键大全.xlsx
+++ b/studio的使用/快捷键大全.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>功能内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,79 +352,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Ctrl + G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看方法被掉用的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reformat Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find Usage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + Alt + N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索内部类或方法或变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alt + 鼠标左键 + 拖动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列选择 （描述：默认是行选择模式。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近打开或编辑过的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重命名字段和方法名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt + 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看类的结构及继承关系,在studio左侧栏显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + /</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多行注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找方法在哪里被调用（Call Hierarchy），调用层次结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go To Next Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Ctrl + Alt + L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ctrl + G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看方法被掉用的位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reformat Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find Usage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl + Shift + F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl + Shift + Alt + N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索内部类或方法或变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alt + 鼠标左键 + 拖动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列选择 （描述：默认是行选择模式。）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近打开或编辑过的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重命名字段和方法名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alt + 7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看类的结构及继承关系,在studio左侧栏显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl + Shift + /</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多行注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查找方法在哪里被调用（Call Hierarchy），调用层次结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Go To Next Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl + N</t>
+    <t>Ctrl + Alt + T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surround Selected code fragment with if,while,try/cache or other construct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surround with try cache</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1056,7 +1068,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>32</v>
@@ -1100,10 +1112,10 @@
     <row r="16" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1159,7 +1171,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>23</v>
@@ -1211,37 +1223,39 @@
     </row>
     <row r="26" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="C27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1249,10 +1263,10 @@
     <row r="29" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1260,10 +1274,10 @@
     <row r="30" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1271,10 +1285,10 @@
     <row r="31" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="4" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1282,60 +1296,60 @@
     <row r="32" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A33" s="5"/>
       <c r="B33" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
+      <c r="A36" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="B36" s="4" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1343,10 +1357,10 @@
     <row r="37" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="4" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1354,10 +1368,10 @@
     <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1365,10 +1379,10 @@
     <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
       <c r="B39" s="4" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1376,10 +1390,10 @@
     <row r="40" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="4" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1387,10 +1401,10 @@
     <row r="41" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1398,18 +1412,22 @@
     <row r="42" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
@@ -1511,11 +1529,12 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+    <row r="58" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B59" s="1"/>
@@ -1565,11 +1584,17 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
